--- a/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/07,25/10,07,25 ПОКОМ КИ филиалы/дв 10,07,25 днрсч пок ки.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/07,25/10,07,25 ПОКОМ КИ филиалы/дв 10,07,25 днрсч пок ки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\заказы\статистика филиалы\2025\07,25\10,07,25 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE06534-4ED2-4849-BC8E-94933176FFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E058595D-75D7-46D4-AE89-0771D272C202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="159">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -492,6 +492,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>/ нет в бланке</t>
     </r>
@@ -518,6 +520,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / 02,06,25 в уценку 8шт.</t>
     </r>
@@ -538,6 +542,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / 09,12,24 в уценку 498кг</t>
     </r>
@@ -558,6 +564,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / 11,03,25 списание 7кг (недостача) / 22,01,25 списание 10кг (недостача)</t>
     </r>
@@ -572,10 +580,13 @@
     <t>заказ</t>
   </si>
   <si>
-    <t>19,07,</t>
+    <t>Бутырин(12,07)</t>
   </si>
   <si>
-    <t>Бутырин(12,07)</t>
+    <t>переходящий запас</t>
+  </si>
+  <si>
+    <t>14,07,</t>
   </si>
 </sst>
 </file>
@@ -596,17 +607,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1870,7 +1887,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,7 +1904,7 @@
     <col min="22" max="22" width="13" customWidth="1"/>
     <col min="23" max="24" width="5" customWidth="1"/>
     <col min="25" max="34" width="6" customWidth="1"/>
-    <col min="35" max="35" width="31.7109375" customWidth="1"/>
+    <col min="35" max="35" width="18.140625" customWidth="1"/>
     <col min="36" max="36" width="7" customWidth="1"/>
     <col min="37" max="51" width="8" customWidth="1"/>
   </cols>
@@ -1929,7 +1946,9 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
+      <c r="AK1" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
@@ -2148,13 +2167,13 @@
         <v>25</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -2317,7 +2336,10 @@
         <f>SUM(AJ6:AJ500)</f>
         <v>12419</v>
       </c>
-      <c r="AK5" s="1"/>
+      <c r="AK5" s="4">
+        <f>SUM(AK6:AK500)</f>
+        <v>18437.771339999996</v>
+      </c>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
@@ -2442,7 +2464,10 @@
         <f>ROUND(G6*T6,0)</f>
         <v>459</v>
       </c>
-      <c r="AK6" s="1"/>
+      <c r="AK6" s="1">
+        <f>S6*G6*3</f>
+        <v>353.30640000000005</v>
+      </c>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
@@ -2562,7 +2587,10 @@
         <f t="shared" ref="AJ7:AJ70" si="7">ROUND(G7*T7,0)</f>
         <v>0</v>
       </c>
-      <c r="AK7" s="1"/>
+      <c r="AK7" s="1">
+        <f t="shared" ref="AK7:AK19" si="8">S7*G7*3</f>
+        <v>115.00080000000001</v>
+      </c>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
@@ -2680,7 +2708,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="1"/>
+      <c r="AK8" s="1">
+        <f t="shared" si="8"/>
+        <v>443.72699999999998</v>
+      </c>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
@@ -2753,7 +2784,7 @@
         <v>134.19999999999999</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" ref="T9" si="8">11*S9-Q9-P9-F9</f>
+        <f t="shared" ref="T9" si="9">11*S9-Q9-P9-F9</f>
         <v>132.79999999999995</v>
       </c>
       <c r="U9" s="5"/>
@@ -2803,7 +2834,10 @@
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="AK9" s="1"/>
+      <c r="AK9" s="1">
+        <f t="shared" si="8"/>
+        <v>181.17</v>
+      </c>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
@@ -2927,7 +2961,10 @@
         <f t="shared" si="7"/>
         <v>270</v>
       </c>
-      <c r="AK10" s="1"/>
+      <c r="AK10" s="1">
+        <f t="shared" si="8"/>
+        <v>715.64094</v>
+      </c>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
@@ -3047,7 +3084,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK11" s="1"/>
+      <c r="AK11" s="1">
+        <f t="shared" si="8"/>
+        <v>4.08</v>
+      </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
@@ -3167,7 +3207,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="1"/>
+      <c r="AK12" s="1">
+        <f t="shared" si="8"/>
+        <v>1.26</v>
+      </c>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
@@ -3288,7 +3331,10 @@
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="AK13" s="1"/>
+      <c r="AK13" s="1">
+        <f t="shared" si="8"/>
+        <v>17.544</v>
+      </c>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
@@ -3404,7 +3450,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="1"/>
+      <c r="AK14" s="1">
+        <f t="shared" si="8"/>
+        <v>0.83999999999999986</v>
+      </c>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
@@ -3524,7 +3573,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="1"/>
+      <c r="AK15" s="1">
+        <f t="shared" si="8"/>
+        <v>13.859999999999998</v>
+      </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
@@ -3649,7 +3701,10 @@
         <f t="shared" si="7"/>
         <v>1264</v>
       </c>
-      <c r="AK16" s="1"/>
+      <c r="AK16" s="1">
+        <f t="shared" si="8"/>
+        <v>910.90679999999998</v>
+      </c>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
@@ -3774,7 +3829,10 @@
         <f t="shared" si="7"/>
         <v>821</v>
       </c>
-      <c r="AK17" s="1"/>
+      <c r="AK17" s="1">
+        <f t="shared" si="8"/>
+        <v>1111.7460000000001</v>
+      </c>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
@@ -3847,7 +3905,7 @@
         <v>39.860199999999999</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" ref="T18:T19" si="9">12*S18-Q18-P18-F18</f>
+        <f t="shared" ref="T18:T19" si="10">12*S18-Q18-P18-F18</f>
         <v>139.24860000000001</v>
       </c>
       <c r="U18" s="5"/>
@@ -3895,7 +3953,10 @@
         <f t="shared" si="7"/>
         <v>139</v>
       </c>
-      <c r="AK18" s="1"/>
+      <c r="AK18" s="1">
+        <f t="shared" si="8"/>
+        <v>119.5806</v>
+      </c>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
@@ -3970,7 +4031,7 @@
         <v>160.00219999999999</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>439.88359999999977</v>
       </c>
       <c r="U19" s="5"/>
@@ -4020,7 +4081,10 @@
         <f t="shared" si="7"/>
         <v>440</v>
       </c>
-      <c r="AK19" s="1"/>
+      <c r="AK19" s="1">
+        <f t="shared" si="8"/>
+        <v>480.00659999999993</v>
+      </c>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
@@ -4207,7 +4271,7 @@
         <v>462.38620000000003</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" ref="T21:T24" si="10">12*S21-Q21-P21-F21</f>
+        <f t="shared" ref="T21:T24" si="11">12*S21-Q21-P21-F21</f>
         <v>1066.5021400000023</v>
       </c>
       <c r="U21" s="5"/>
@@ -4257,7 +4321,10 @@
         <f t="shared" si="7"/>
         <v>1067</v>
       </c>
-      <c r="AK21" s="1"/>
+      <c r="AK21" s="1">
+        <f t="shared" ref="AK21:AK24" si="12">S21*G21*3</f>
+        <v>1387.1586000000002</v>
+      </c>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
@@ -4332,7 +4399,7 @@
         <v>94.687399999999997</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>106.90388000000019</v>
       </c>
       <c r="U22" s="5"/>
@@ -4382,7 +4449,10 @@
         <f t="shared" si="7"/>
         <v>107</v>
       </c>
-      <c r="AK22" s="1"/>
+      <c r="AK22" s="1">
+        <f t="shared" si="12"/>
+        <v>284.06219999999996</v>
+      </c>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
@@ -4457,7 +4527,7 @@
         <v>145.2414</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>164.51580000000001</v>
       </c>
       <c r="U23" s="5"/>
@@ -4507,7 +4577,10 @@
         <f t="shared" si="7"/>
         <v>165</v>
       </c>
-      <c r="AK23" s="1"/>
+      <c r="AK23" s="1">
+        <f t="shared" si="12"/>
+        <v>435.7242</v>
+      </c>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
@@ -4582,7 +4655,7 @@
         <v>225.99079999999998</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>415.49481999999898</v>
       </c>
       <c r="U24" s="5"/>
@@ -4632,7 +4705,10 @@
         <f t="shared" si="7"/>
         <v>415</v>
       </c>
-      <c r="AK24" s="1"/>
+      <c r="AK24" s="1">
+        <f t="shared" si="12"/>
+        <v>677.97239999999988</v>
+      </c>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
@@ -4973,7 +5049,10 @@
         <f t="shared" si="7"/>
         <v>167</v>
       </c>
-      <c r="AK27" s="1"/>
+      <c r="AK27" s="1">
+        <f>S27*G27*3</f>
+        <v>566.34300000000007</v>
+      </c>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
@@ -5531,7 +5610,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="1"/>
+      <c r="AK32" s="1">
+        <f t="shared" ref="AK32:AK36" si="13">S32*G32*3</f>
+        <v>1.1255999999999999</v>
+      </c>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
@@ -5606,7 +5688,7 @@
         <v>179.6</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" ref="T33:T36" si="11">11*S33-Q33-P33-F33</f>
+        <f t="shared" ref="T33:T36" si="14">11*S33-Q33-P33-F33</f>
         <v>66.599999999999909</v>
       </c>
       <c r="U33" s="5"/>
@@ -5656,7 +5738,10 @@
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="AK33" s="1"/>
+      <c r="AK33" s="1">
+        <f t="shared" si="13"/>
+        <v>215.52</v>
+      </c>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
@@ -5778,7 +5863,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="1"/>
+      <c r="AK34" s="1">
+        <f t="shared" si="13"/>
+        <v>249.20999999999998</v>
+      </c>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
@@ -5853,7 +5941,7 @@
         <v>225.4</v>
       </c>
       <c r="T35" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>244.40000000000009</v>
       </c>
       <c r="U35" s="5"/>
@@ -5903,7 +5991,10 @@
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="AK35" s="1"/>
+      <c r="AK35" s="1">
+        <f t="shared" si="13"/>
+        <v>270.48</v>
+      </c>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
@@ -5978,7 +6069,7 @@
         <v>70.552999999999997</v>
       </c>
       <c r="T36" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.108399999999961</v>
       </c>
       <c r="U36" s="5"/>
@@ -6026,7 +6117,10 @@
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="AK36" s="1"/>
+      <c r="AK36" s="1">
+        <f t="shared" si="13"/>
+        <v>211.65899999999999</v>
+      </c>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
@@ -6185,7 +6279,7 @@
         <v>236</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" ref="L38:L69" si="12">E38-K38</f>
+        <f t="shared" ref="L38:L69" si="15">E38-K38</f>
         <v>-34</v>
       </c>
       <c r="M38" s="1">
@@ -6209,7 +6303,7 @@
         <v>40.4</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" ref="T38:T45" si="13">11*S38-Q38-P38-F38</f>
+        <f t="shared" ref="T38:T45" si="16">11*S38-Q38-P38-F38</f>
         <v>69.399999999999977</v>
       </c>
       <c r="U38" s="5"/>
@@ -6257,7 +6351,10 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="AK38" s="1"/>
+      <c r="AK38" s="1">
+        <f t="shared" ref="AK38:AK46" si="17">S38*G38*3</f>
+        <v>42.419999999999995</v>
+      </c>
       <c r="AL38" s="1"/>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
@@ -6306,7 +6403,7 @@
         <v>81.322000000000003</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-21.605000000000004</v>
       </c>
       <c r="M39" s="1">
@@ -6377,7 +6474,10 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AK39" s="1"/>
+      <c r="AK39" s="1">
+        <f t="shared" si="17"/>
+        <v>35.830200000000005</v>
+      </c>
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
@@ -6426,7 +6526,7 @@
         <v>537</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-151</v>
       </c>
       <c r="M40" s="1">
@@ -6450,7 +6550,7 @@
         <v>49.2</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.2000000000000455</v>
       </c>
       <c r="U40" s="5"/>
@@ -6498,7 +6598,10 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AK40" s="1"/>
+      <c r="AK40" s="1">
+        <f t="shared" si="17"/>
+        <v>59.040000000000006</v>
+      </c>
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
@@ -6547,7 +6650,7 @@
         <v>787</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-184</v>
       </c>
       <c r="M41" s="1">
@@ -6571,7 +6674,7 @@
         <v>86.6</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>49.799999999999955</v>
       </c>
       <c r="U41" s="5"/>
@@ -6621,7 +6724,10 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="AK41" s="1"/>
+      <c r="AK41" s="1">
+        <f t="shared" si="17"/>
+        <v>103.92</v>
+      </c>
       <c r="AL41" s="1"/>
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
@@ -6670,7 +6776,7 @@
         <v>171.63900000000001</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-25.487000000000023</v>
       </c>
       <c r="M42" s="1">
@@ -6694,7 +6800,7 @@
         <v>29.230399999999996</v>
       </c>
       <c r="T42" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>127.94679999999995</v>
       </c>
       <c r="U42" s="5"/>
@@ -6742,7 +6848,10 @@
         <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="AK42" s="1"/>
+      <c r="AK42" s="1">
+        <f t="shared" si="17"/>
+        <v>87.691199999999981</v>
+      </c>
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
@@ -6791,7 +6900,7 @@
         <v>453</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-49</v>
       </c>
       <c r="M43" s="1">
@@ -6815,7 +6924,7 @@
         <v>80.8</v>
       </c>
       <c r="T43" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>193.20000000000005</v>
       </c>
       <c r="U43" s="5"/>
@@ -6865,7 +6974,10 @@
         <f t="shared" si="7"/>
         <v>68</v>
       </c>
-      <c r="AK43" s="1"/>
+      <c r="AK43" s="1">
+        <f t="shared" si="17"/>
+        <v>84.839999999999989</v>
+      </c>
       <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
@@ -6914,7 +7026,7 @@
         <v>336</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-20</v>
       </c>
       <c r="M44" s="1">
@@ -6938,7 +7050,7 @@
         <v>63.2</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>112</v>
       </c>
       <c r="U44" s="5"/>
@@ -6988,7 +7100,10 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="AK44" s="1"/>
+      <c r="AK44" s="1">
+        <f t="shared" si="17"/>
+        <v>75.84</v>
+      </c>
       <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
@@ -7037,7 +7152,7 @@
         <v>99.47</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-9.3319999999999936</v>
       </c>
       <c r="M45" s="1">
@@ -7061,7 +7176,7 @@
         <v>18.0276</v>
       </c>
       <c r="T45" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>29.015399999999971</v>
       </c>
       <c r="U45" s="5"/>
@@ -7109,7 +7224,10 @@
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="AK45" s="1"/>
+      <c r="AK45" s="1">
+        <f t="shared" si="17"/>
+        <v>54.082799999999999</v>
+      </c>
       <c r="AL45" s="1"/>
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
@@ -7158,7 +7276,7 @@
         <v>919.81299999999999</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-132.94600000000003</v>
       </c>
       <c r="M46" s="1">
@@ -7234,7 +7352,10 @@
         <f t="shared" si="7"/>
         <v>436</v>
       </c>
-      <c r="AK46" s="1"/>
+      <c r="AK46" s="1">
+        <f t="shared" si="17"/>
+        <v>472.12020000000001</v>
+      </c>
       <c r="AL46" s="1"/>
       <c r="AM46" s="1"/>
       <c r="AN46" s="1"/>
@@ -7273,7 +7394,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M47" s="11">
@@ -7393,7 +7514,7 @@
         <v>176</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-10</v>
       </c>
       <c r="M48" s="1">
@@ -7467,7 +7588,10 @@
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="AK48" s="1"/>
+      <c r="AK48" s="1">
+        <f>S48*G48*3</f>
+        <v>44.820000000000007</v>
+      </c>
       <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
       <c r="AN48" s="1"/>
@@ -7506,7 +7630,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M49" s="11">
@@ -7626,7 +7750,7 @@
         <v>57</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="M50" s="1">
@@ -7695,7 +7819,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK50" s="1"/>
+      <c r="AK50" s="1">
+        <f t="shared" ref="AK50:AK62" si="18">S50*G50*3</f>
+        <v>12.48</v>
+      </c>
       <c r="AL50" s="1"/>
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
@@ -7744,7 +7871,7 @@
         <v>46</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="M51" s="1">
@@ -7815,7 +7942,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK51" s="1"/>
+      <c r="AK51" s="1">
+        <f t="shared" si="18"/>
+        <v>10.560000000000002</v>
+      </c>
       <c r="AL51" s="1"/>
       <c r="AM51" s="1"/>
       <c r="AN51" s="1"/>
@@ -7864,7 +7994,7 @@
         <v>219.27199999999999</v>
       </c>
       <c r="L52" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-56.542999999999978</v>
       </c>
       <c r="M52" s="1">
@@ -7890,7 +8020,7 @@
         <v>32.5458</v>
       </c>
       <c r="T52" s="5">
-        <f t="shared" ref="T52:T53" si="14">12*S52-Q52-P52-F52</f>
+        <f t="shared" ref="T52:T53" si="19">12*S52-Q52-P52-F52</f>
         <v>90.5916</v>
       </c>
       <c r="U52" s="5"/>
@@ -7938,7 +8068,10 @@
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="AK52" s="1"/>
+      <c r="AK52" s="1">
+        <f t="shared" si="18"/>
+        <v>97.6374</v>
+      </c>
       <c r="AL52" s="1"/>
       <c r="AM52" s="1"/>
       <c r="AN52" s="1"/>
@@ -7987,7 +8120,7 @@
         <v>821.02300000000002</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-126.00800000000004</v>
       </c>
       <c r="M53" s="1">
@@ -8011,7 +8144,7 @@
         <v>139.00299999999999</v>
       </c>
       <c r="T53" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>442.70099999999991</v>
       </c>
       <c r="U53" s="5"/>
@@ -8061,7 +8194,10 @@
         <f t="shared" si="7"/>
         <v>443</v>
       </c>
-      <c r="AK53" s="1"/>
+      <c r="AK53" s="1">
+        <f t="shared" si="18"/>
+        <v>417.00899999999996</v>
+      </c>
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
@@ -8110,7 +8246,7 @@
         <v>246.131</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-111.00399999999999</v>
       </c>
       <c r="M54" s="1">
@@ -8134,7 +8270,7 @@
         <v>27.025400000000001</v>
       </c>
       <c r="T54" s="5">
-        <f t="shared" ref="T54:T61" si="15">11*S54-Q54-P54-F54</f>
+        <f t="shared" ref="T54:T61" si="20">11*S54-Q54-P54-F54</f>
         <v>24.302400000000006</v>
       </c>
       <c r="U54" s="5"/>
@@ -8184,7 +8320,10 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="AK54" s="1"/>
+      <c r="AK54" s="1">
+        <f t="shared" si="18"/>
+        <v>81.0762</v>
+      </c>
       <c r="AL54" s="1"/>
       <c r="AM54" s="1"/>
       <c r="AN54" s="1"/>
@@ -8233,7 +8372,7 @@
         <v>205</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-50</v>
       </c>
       <c r="M55" s="1">
@@ -8259,7 +8398,7 @@
         <v>31</v>
       </c>
       <c r="T55" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>81</v>
       </c>
       <c r="U55" s="5"/>
@@ -8307,7 +8446,10 @@
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="AK55" s="1"/>
+      <c r="AK55" s="1">
+        <f t="shared" si="18"/>
+        <v>37.200000000000003</v>
+      </c>
       <c r="AL55" s="1"/>
       <c r="AM55" s="1"/>
       <c r="AN55" s="1"/>
@@ -8356,7 +8498,7 @@
         <v>1239</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-133</v>
       </c>
       <c r="M56" s="1">
@@ -8382,7 +8524,7 @@
         <v>221.2</v>
       </c>
       <c r="T56" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>344.79999999999973</v>
       </c>
       <c r="U56" s="5"/>
@@ -8430,7 +8572,10 @@
         <f t="shared" si="7"/>
         <v>138</v>
       </c>
-      <c r="AK56" s="1"/>
+      <c r="AK56" s="1">
+        <f t="shared" si="18"/>
+        <v>265.44</v>
+      </c>
       <c r="AL56" s="1"/>
       <c r="AM56" s="1"/>
       <c r="AN56" s="1"/>
@@ -8479,7 +8624,7 @@
         <v>777</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-67</v>
       </c>
       <c r="M57" s="1">
@@ -8503,7 +8648,7 @@
         <v>142</v>
       </c>
       <c r="T57" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>155.79999999999995</v>
       </c>
       <c r="U57" s="5"/>
@@ -8551,7 +8696,10 @@
         <f t="shared" si="7"/>
         <v>62</v>
       </c>
-      <c r="AK57" s="1"/>
+      <c r="AK57" s="1">
+        <f t="shared" si="18"/>
+        <v>170.4</v>
+      </c>
       <c r="AL57" s="1"/>
       <c r="AM57" s="1"/>
       <c r="AN57" s="1"/>
@@ -8600,7 +8748,7 @@
         <v>462.49900000000002</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-128.21600000000001</v>
       </c>
       <c r="M58" s="1">
@@ -8626,7 +8774,7 @@
         <v>66.8566</v>
       </c>
       <c r="T58" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>89.754999999999825</v>
       </c>
       <c r="U58" s="5"/>
@@ -8674,7 +8822,10 @@
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="AK58" s="1"/>
+      <c r="AK58" s="1">
+        <f t="shared" si="18"/>
+        <v>200.56979999999999</v>
+      </c>
       <c r="AL58" s="1"/>
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
@@ -8723,7 +8874,7 @@
         <v>310.03300000000002</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-92.045000000000016</v>
       </c>
       <c r="M59" s="1">
@@ -8749,7 +8900,7 @@
         <v>43.5976</v>
       </c>
       <c r="T59" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>59.328400000000215</v>
       </c>
       <c r="U59" s="5"/>
@@ -8797,7 +8948,10 @@
         <f t="shared" si="7"/>
         <v>59</v>
       </c>
-      <c r="AK59" s="1"/>
+      <c r="AK59" s="1">
+        <f t="shared" si="18"/>
+        <v>130.7928</v>
+      </c>
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
       <c r="AN59" s="1"/>
@@ -8846,7 +9000,7 @@
         <v>597.58000000000004</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-198.94300000000004</v>
       </c>
       <c r="M60" s="1">
@@ -8872,7 +9026,7 @@
         <v>79.727400000000003</v>
       </c>
       <c r="T60" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>132.14519999999993</v>
       </c>
       <c r="U60" s="5"/>
@@ -8920,7 +9074,10 @@
         <f t="shared" si="7"/>
         <v>132</v>
       </c>
-      <c r="AK60" s="1"/>
+      <c r="AK60" s="1">
+        <f t="shared" si="18"/>
+        <v>239.18220000000002</v>
+      </c>
       <c r="AL60" s="1"/>
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
@@ -8969,7 +9126,7 @@
         <v>69.09</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-10.484000000000002</v>
       </c>
       <c r="M61" s="1">
@@ -8993,7 +9150,7 @@
         <v>11.7212</v>
       </c>
       <c r="T61" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>15.657200000000039</v>
       </c>
       <c r="U61" s="5"/>
@@ -9041,7 +9198,10 @@
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="AK61" s="1"/>
+      <c r="AK61" s="1">
+        <f t="shared" si="18"/>
+        <v>35.163600000000002</v>
+      </c>
       <c r="AL61" s="1"/>
       <c r="AM61" s="1"/>
       <c r="AN61" s="1"/>
@@ -9090,7 +9250,7 @@
         <v>102</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M62" s="1">
@@ -9161,7 +9321,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK62" s="1"/>
+      <c r="AK62" s="1">
+        <f t="shared" si="18"/>
+        <v>36.72</v>
+      </c>
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
@@ -9200,7 +9363,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M63" s="11">
@@ -9310,7 +9473,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M64" s="11">
@@ -9422,7 +9585,7 @@
         <v>18</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-18</v>
       </c>
       <c r="M65" s="11">
@@ -9542,7 +9705,7 @@
         <v>125</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M66" s="1">
@@ -9613,7 +9776,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK66" s="1"/>
+      <c r="AK66" s="1">
+        <f>S66*G66*3</f>
+        <v>45</v>
+      </c>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
       <c r="AN66" s="1"/>
@@ -9652,7 +9818,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M67" s="11">
@@ -9772,7 +9938,7 @@
         <v>49</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M68" s="1">
@@ -9796,7 +9962,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="T68" s="5">
-        <f t="shared" ref="T68" si="16">11*S68-Q68-P68-F68</f>
+        <f t="shared" ref="T68" si="21">11*S68-Q68-P68-F68</f>
         <v>7.8000000000000114</v>
       </c>
       <c r="U68" s="5"/>
@@ -9846,7 +10012,10 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AK68" s="1"/>
+      <c r="AK68" s="1">
+        <f t="shared" ref="AK68:AK70" si="22">S68*G68*3</f>
+        <v>11.760000000000002</v>
+      </c>
       <c r="AL68" s="1"/>
       <c r="AM68" s="1"/>
       <c r="AN68" s="1"/>
@@ -9891,7 +10060,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M69" s="1">
@@ -9962,7 +10131,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK69" s="1"/>
+      <c r="AK69" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
       <c r="AN69" s="1"/>
@@ -10009,7 +10181,7 @@
         <v>1.3</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" ref="L70:L93" si="17">E70-K70</f>
+        <f t="shared" ref="L70:L93" si="23">E70-K70</f>
         <v>0.15100000000000002</v>
       </c>
       <c r="M70" s="1">
@@ -10080,7 +10252,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK70" s="1"/>
+      <c r="AK70" s="1">
+        <f t="shared" si="22"/>
+        <v>0.87060000000000004</v>
+      </c>
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
       <c r="AN70" s="1"/>
@@ -10119,11 +10294,11 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M71" s="11">
-        <f t="shared" ref="M71:M93" si="18">E71-O71</f>
+        <f t="shared" ref="M71:M93" si="24">E71-O71</f>
         <v>0</v>
       </c>
       <c r="N71" s="11"/>
@@ -10139,18 +10314,18 @@
         <v>0</v>
       </c>
       <c r="S71" s="11">
-        <f t="shared" ref="S71:S93" si="19">M71/5</f>
+        <f t="shared" ref="S71:S93" si="25">M71/5</f>
         <v>0</v>
       </c>
       <c r="T71" s="13"/>
       <c r="U71" s="13"/>
       <c r="V71" s="11"/>
       <c r="W71" s="11" t="e">
-        <f t="shared" ref="W71:W93" si="20">(F71+P71+Q71+T71)/S71</f>
+        <f t="shared" ref="W71:W93" si="26">(F71+P71+Q71+T71)/S71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X71" s="11" t="e">
-        <f t="shared" ref="X71:X93" si="21">(F71+P71+Q71)/S71</f>
+        <f t="shared" ref="X71:X93" si="27">(F71+P71+Q71)/S71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y71" s="11">
@@ -10187,7 +10362,7 @@
         <v>117</v>
       </c>
       <c r="AJ71" s="1">
-        <f t="shared" ref="AJ71:AJ93" si="22">ROUND(G71*T71,0)</f>
+        <f t="shared" ref="AJ71:AJ93" si="28">ROUND(G71*T71,0)</f>
         <v>0</v>
       </c>
       <c r="AK71" s="1"/>
@@ -10237,11 +10412,11 @@
         <v>6</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="N72" s="1"/>
@@ -10257,18 +10432,18 @@
         <v>0</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>12.6</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>12.6</v>
       </c>
       <c r="Y72" s="1">
@@ -10305,10 +10480,13 @@
         <v>119</v>
       </c>
       <c r="AJ72" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK72" s="1"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK72" s="1">
+        <f t="shared" ref="AK72:AK78" si="29">S72*G72*3</f>
+        <v>0.60000000000000009</v>
+      </c>
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
       <c r="AN72" s="1"/>
@@ -10357,11 +10535,11 @@
         <v>2618.98</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-470.00599999999986</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2148.9740000000002</v>
       </c>
       <c r="N73" s="1">
@@ -10379,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="S73" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>429.79480000000001</v>
       </c>
       <c r="T73" s="5">
@@ -10389,11 +10567,11 @@
       <c r="U73" s="5"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>12.299999999999999</v>
       </c>
       <c r="X73" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>9.0136758285581866</v>
       </c>
       <c r="Y73" s="1">
@@ -10430,10 +10608,13 @@
         <v>62</v>
       </c>
       <c r="AJ73" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1412</v>
       </c>
-      <c r="AK73" s="1"/>
+      <c r="AK73" s="1">
+        <f t="shared" si="29"/>
+        <v>1289.3843999999999</v>
+      </c>
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
@@ -10482,11 +10663,11 @@
         <v>623.99</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-163.05500000000001</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>460.935</v>
       </c>
       <c r="N74" s="1"/>
@@ -10502,18 +10683,18 @@
         <v>0</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>92.186999999999998</v>
       </c>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>12.200830919760921</v>
       </c>
       <c r="X74" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>12.200830919760921</v>
       </c>
       <c r="Y74" s="1">
@@ -10550,10 +10731,13 @@
         <v>55</v>
       </c>
       <c r="AJ74" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK74" s="1"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK74" s="1">
+        <f t="shared" si="29"/>
+        <v>276.56099999999998</v>
+      </c>
       <c r="AL74" s="1"/>
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
@@ -10602,11 +10786,11 @@
         <v>1393.913</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-55.010999999999967</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1338.902</v>
       </c>
       <c r="N75" s="1">
@@ -10624,21 +10808,21 @@
         <v>0</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>267.78039999999999</v>
       </c>
       <c r="T75" s="5">
-        <f t="shared" ref="T75" si="23">12*S75-Q75-P75-F75</f>
+        <f t="shared" ref="T75" si="30">12*S75-Q75-P75-F75</f>
         <v>803.9477999999998</v>
       </c>
       <c r="U75" s="5"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="X75" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>8.9977347109795947</v>
       </c>
       <c r="Y75" s="1">
@@ -10675,10 +10859,13 @@
         <v>123</v>
       </c>
       <c r="AJ75" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>804</v>
       </c>
-      <c r="AK75" s="1"/>
+      <c r="AK75" s="1">
+        <f t="shared" si="29"/>
+        <v>803.34119999999996</v>
+      </c>
       <c r="AL75" s="1"/>
       <c r="AM75" s="1"/>
       <c r="AN75" s="1"/>
@@ -10727,11 +10914,11 @@
         <v>3858.3220000000001</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-1153.6730000000002</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2527.6489999999999</v>
       </c>
       <c r="N76" s="1">
@@ -10749,7 +10936,7 @@
         <v>141</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>505.52979999999997</v>
       </c>
       <c r="T76" s="5">
@@ -10759,11 +10946,11 @@
       <c r="U76" s="5"/>
       <c r="V76" s="1"/>
       <c r="W76" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>12.300000000000002</v>
       </c>
       <c r="X76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>9.6966192695267441</v>
       </c>
       <c r="Y76" s="1">
@@ -10800,10 +10987,13 @@
         <v>40</v>
       </c>
       <c r="AJ76" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1316</v>
       </c>
-      <c r="AK76" s="1"/>
+      <c r="AK76" s="1">
+        <f t="shared" si="29"/>
+        <v>1516.5893999999998</v>
+      </c>
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
       <c r="AN76" s="1"/>
@@ -10850,11 +11040,11 @@
         <v>3.9</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-2.5179999999999998</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="N77" s="1"/>
@@ -10870,18 +11060,18 @@
         <v>0</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.27639999999999998</v>
       </c>
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
       <c r="V77" s="1"/>
       <c r="W77" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>66.678726483357451</v>
       </c>
       <c r="X77" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>66.678726483357451</v>
       </c>
       <c r="Y77" s="1">
@@ -10918,10 +11108,13 @@
         <v>152</v>
       </c>
       <c r="AJ77" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK77" s="1"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK77" s="1">
+        <f t="shared" si="29"/>
+        <v>0.82919999999999994</v>
+      </c>
       <c r="AL77" s="1"/>
       <c r="AM77" s="1"/>
       <c r="AN77" s="1"/>
@@ -10968,11 +11161,11 @@
         <v>2.6</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>7.8999999999999737E-2</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2.6789999999999998</v>
       </c>
       <c r="N78" s="1"/>
@@ -10988,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.53579999999999994</v>
       </c>
       <c r="T78" s="5">
@@ -10997,11 +11190,11 @@
       <c r="U78" s="5"/>
       <c r="V78" s="1"/>
       <c r="W78" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>17.392683837252708</v>
       </c>
       <c r="X78" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>9.9272116461366195</v>
       </c>
       <c r="Y78" s="1">
@@ -11038,10 +11231,13 @@
         <v>127</v>
       </c>
       <c r="AJ78" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="AK78" s="1"/>
+      <c r="AK78" s="1">
+        <f t="shared" si="29"/>
+        <v>1.6073999999999997</v>
+      </c>
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
       <c r="AN78" s="1"/>
@@ -11080,11 +11276,11 @@
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
       <c r="L79" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M79" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N79" s="11"/>
@@ -11100,18 +11296,18 @@
         <v>0</v>
       </c>
       <c r="S79" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T79" s="13"/>
       <c r="U79" s="13"/>
       <c r="V79" s="11"/>
       <c r="W79" s="11" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X79" s="11" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y79" s="11">
@@ -11148,7 +11344,7 @@
         <v>129</v>
       </c>
       <c r="AJ79" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AK79" s="1"/>
@@ -11200,11 +11396,11 @@
         <v>49.271999999999998</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-23.689999999999998</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>25.582000000000001</v>
       </c>
       <c r="N80" s="1"/>
@@ -11220,18 +11416,18 @@
         <v>0</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>5.1164000000000005</v>
       </c>
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
       <c r="V80" s="1"/>
       <c r="W80" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>13.22840278320694</v>
       </c>
       <c r="X80" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>13.22840278320694</v>
       </c>
       <c r="Y80" s="1">
@@ -11266,10 +11462,13 @@
       </c>
       <c r="AI80" s="1"/>
       <c r="AJ80" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK80" s="1"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK80" s="1">
+        <f t="shared" ref="AK80:AK92" si="31">S80*G80*3</f>
+        <v>15.349200000000002</v>
+      </c>
       <c r="AL80" s="1"/>
       <c r="AM80" s="1"/>
       <c r="AN80" s="1"/>
@@ -11316,11 +11515,11 @@
         <v>6</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="N81" s="1"/>
@@ -11336,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.2</v>
       </c>
       <c r="T81" s="5">
@@ -11346,11 +11545,11 @@
       <c r="U81" s="5"/>
       <c r="V81" s="1"/>
       <c r="W81" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="X81" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="Y81" s="1">
@@ -11385,10 +11584,13 @@
       </c>
       <c r="AI81" s="1"/>
       <c r="AJ81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="AK81" s="1"/>
+      <c r="AK81" s="1">
+        <f t="shared" si="31"/>
+        <v>1.08</v>
+      </c>
       <c r="AL81" s="1"/>
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
@@ -11435,11 +11637,11 @@
         <v>5</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="N82" s="1"/>
@@ -11455,18 +11657,18 @@
         <v>0</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="1"/>
       <c r="W82" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="X82" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="Y82" s="1">
@@ -11503,10 +11705,13 @@
         <v>153</v>
       </c>
       <c r="AJ82" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK82" s="1"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK82" s="1">
+        <f t="shared" si="31"/>
+        <v>0.89999999999999991</v>
+      </c>
       <c r="AL82" s="1"/>
       <c r="AM82" s="1"/>
       <c r="AN82" s="1"/>
@@ -11555,11 +11760,11 @@
         <v>92</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-7</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>85</v>
       </c>
       <c r="N83" s="1"/>
@@ -11575,21 +11780,21 @@
         <v>0</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="T83" s="5">
-        <f t="shared" ref="T83:T87" si="24">11*S83-Q83-P83-F83</f>
+        <f t="shared" ref="T83:T87" si="32">11*S83-Q83-P83-F83</f>
         <v>42</v>
       </c>
       <c r="U83" s="5"/>
       <c r="V83" s="1"/>
       <c r="W83" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="X83" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>8.5294117647058822</v>
       </c>
       <c r="Y83" s="1">
@@ -11624,10 +11829,13 @@
       </c>
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
-      <c r="AK83" s="1"/>
+      <c r="AK83" s="1">
+        <f t="shared" si="31"/>
+        <v>15.299999999999999</v>
+      </c>
       <c r="AL83" s="1"/>
       <c r="AM83" s="1"/>
       <c r="AN83" s="1"/>
@@ -11670,11 +11878,11 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N84" s="1"/>
@@ -11690,18 +11898,18 @@
         <v>0</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="1"/>
       <c r="W84" s="1" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X84" s="1" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y84" s="1">
@@ -11738,10 +11946,13 @@
         <v>132</v>
       </c>
       <c r="AJ84" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK84" s="1"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK84" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AL84" s="1"/>
       <c r="AM84" s="1"/>
       <c r="AN84" s="1"/>
@@ -11790,11 +12001,11 @@
         <v>4929.1769999999997</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-242.77099999999973</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>4686.4059999999999</v>
       </c>
       <c r="N85" s="1">
@@ -11814,21 +12025,21 @@
         <v>0</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>937.28120000000001</v>
       </c>
       <c r="T85" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1391.0242000000007</v>
       </c>
       <c r="U85" s="5"/>
       <c r="V85" s="1"/>
       <c r="W85" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="X85" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>9.515894482893712</v>
       </c>
       <c r="Y85" s="1">
@@ -11865,10 +12076,13 @@
         <v>62</v>
       </c>
       <c r="AJ85" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1391</v>
       </c>
-      <c r="AK85" s="1"/>
+      <c r="AK85" s="1">
+        <f t="shared" si="31"/>
+        <v>2811.8436000000002</v>
+      </c>
       <c r="AL85" s="1"/>
       <c r="AM85" s="1"/>
       <c r="AN85" s="1"/>
@@ -11917,11 +12131,11 @@
         <v>178</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-9</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>169</v>
       </c>
       <c r="N86" s="1"/>
@@ -11937,21 +12151,21 @@
         <v>0</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>33.799999999999997</v>
       </c>
       <c r="T86" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>50.799999999999955</v>
       </c>
       <c r="U86" s="5"/>
       <c r="V86" s="1"/>
       <c r="W86" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="X86" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>9.4970414201183448</v>
       </c>
       <c r="Y86" s="1">
@@ -11986,10 +12200,13 @@
       </c>
       <c r="AI86" s="1"/>
       <c r="AJ86" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
-      <c r="AK86" s="1"/>
+      <c r="AK86" s="1">
+        <f t="shared" si="31"/>
+        <v>30.419999999999995</v>
+      </c>
       <c r="AL86" s="1"/>
       <c r="AM86" s="1"/>
       <c r="AN86" s="1"/>
@@ -12038,11 +12255,11 @@
         <v>108</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-14</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>94</v>
       </c>
       <c r="N87" s="1"/>
@@ -12058,21 +12275,21 @@
         <v>0</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>18.8</v>
       </c>
       <c r="T87" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>33.400000000000034</v>
       </c>
       <c r="U87" s="5"/>
       <c r="V87" s="1"/>
       <c r="W87" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="X87" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>9.2234042553191475</v>
       </c>
       <c r="Y87" s="1">
@@ -12109,10 +12326,13 @@
         <v>139</v>
       </c>
       <c r="AJ87" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="AK87" s="1"/>
+      <c r="AK87" s="1">
+        <f t="shared" si="31"/>
+        <v>16.919999999999998</v>
+      </c>
       <c r="AL87" s="1"/>
       <c r="AM87" s="1"/>
       <c r="AN87" s="1"/>
@@ -12161,11 +12381,11 @@
         <v>13.8</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-0.49000000000000021</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>13.31</v>
       </c>
       <c r="N88" s="1"/>
@@ -12181,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2.6619999999999999</v>
       </c>
       <c r="T88" s="5">
@@ -12191,11 +12411,11 @@
       <c r="U88" s="5"/>
       <c r="V88" s="1"/>
       <c r="W88" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="X88" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.6908339594290007</v>
       </c>
       <c r="Y88" s="1">
@@ -12232,10 +12452,13 @@
         <v>154</v>
       </c>
       <c r="AJ88" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
-      <c r="AK88" s="1"/>
+      <c r="AK88" s="1">
+        <f t="shared" si="31"/>
+        <v>7.9859999999999998</v>
+      </c>
       <c r="AL88" s="1"/>
       <c r="AM88" s="1"/>
       <c r="AN88" s="1"/>
@@ -12284,11 +12507,11 @@
         <v>41</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.78300000000000125</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>41.783000000000001</v>
       </c>
       <c r="N89" s="1"/>
@@ -12304,18 +12527,18 @@
         <v>0</v>
       </c>
       <c r="S89" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>8.3566000000000003</v>
       </c>
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
       <c r="V89" s="1"/>
       <c r="W89" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>11.00799368164086</v>
       </c>
       <c r="X89" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>11.00799368164086</v>
       </c>
       <c r="Y89" s="1">
@@ -12350,10 +12573,13 @@
       </c>
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK89" s="1"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK89" s="1">
+        <f t="shared" si="31"/>
+        <v>25.069800000000001</v>
+      </c>
       <c r="AL89" s="1"/>
       <c r="AM89" s="1"/>
       <c r="AN89" s="1"/>
@@ -12402,11 +12628,11 @@
         <v>8</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-2</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="N90" s="1"/>
@@ -12422,18 +12648,18 @@
         <v>0</v>
       </c>
       <c r="S90" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.2</v>
       </c>
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
       <c r="V90" s="1"/>
       <c r="W90" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>15.833333333333334</v>
       </c>
       <c r="X90" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>15.833333333333334</v>
       </c>
       <c r="Y90" s="1">
@@ -12470,10 +12696,13 @@
         <v>111</v>
       </c>
       <c r="AJ90" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK90" s="1"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK90" s="1">
+        <f t="shared" si="31"/>
+        <v>1.1880000000000002</v>
+      </c>
       <c r="AL90" s="1"/>
       <c r="AM90" s="1"/>
       <c r="AN90" s="1"/>
@@ -12522,11 +12751,11 @@
         <v>10</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="N91" s="1"/>
@@ -12542,18 +12771,18 @@
         <v>0</v>
       </c>
       <c r="S91" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.8</v>
       </c>
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
       <c r="V91" s="1"/>
       <c r="W91" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>14.444444444444445</v>
       </c>
       <c r="X91" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>14.444444444444445</v>
       </c>
       <c r="Y91" s="1">
@@ -12588,10 +12817,13 @@
       </c>
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK91" s="1"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK91" s="1">
+        <f t="shared" si="31"/>
+        <v>1.62</v>
+      </c>
       <c r="AL91" s="1"/>
       <c r="AM91" s="1"/>
       <c r="AN91" s="1"/>
@@ -12640,11 +12872,11 @@
         <v>12</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="N92" s="1"/>
@@ -12660,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="T92" s="5">
@@ -12669,11 +12901,11 @@
       <c r="U92" s="5"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>13.18181818181818</v>
       </c>
       <c r="X92" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>10.454545454545453</v>
       </c>
       <c r="Y92" s="1">
@@ -12710,10 +12942,13 @@
         <v>145</v>
       </c>
       <c r="AJ92" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="AK92" s="1"/>
+      <c r="AK92" s="1">
+        <f t="shared" si="31"/>
+        <v>0.79200000000000004</v>
+      </c>
       <c r="AL92" s="1"/>
       <c r="AM92" s="1"/>
       <c r="AN92" s="1"/>
@@ -12756,11 +12991,11 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N93" s="1"/>
@@ -12776,18 +13011,18 @@
         <v>0</v>
       </c>
       <c r="S93" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
       <c r="V93" s="1"/>
       <c r="W93" s="1" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X93" s="1" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y93" s="1">
@@ -12824,10 +13059,13 @@
         <v>147</v>
       </c>
       <c r="AJ93" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK93" s="1"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK93" s="1">
+        <f>S93*G93*3</f>
+        <v>0</v>
+      </c>
       <c r="AL93" s="1"/>
       <c r="AM93" s="1"/>
       <c r="AN93" s="1"/>
